--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE9B6D0-EE1E-4B3E-BEE4-B31EB2B85C89}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE0221B-17A3-45CB-B847-479EF4DE2120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="2655" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,18 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,55 +33,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通寒冰法术的大法师.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmorResist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicResist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>米克尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#测试说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带有强力攻击技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DodgeRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CritRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CritDamagePct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP_LeechRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP_LeechRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力吸取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命吸取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP_Restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒血量回复</t>
+  </si>
+  <si>
+    <t>MP_Restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒法力回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始自带技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"test_001","test_002"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色所在AB包名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色资源名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABPacketName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_BingNv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,15 +293,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,117 +646,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25" style="3" customWidth="1"/>
+    <col min="6" max="7" width="25.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="3" customWidth="1"/>
+    <col min="9" max="10" width="13.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="3" customWidth="1"/>
+    <col min="12" max="24" width="18.625" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2">
+        <v>200</v>
+      </c>
+      <c r="K6" s="2">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="O6" s="2">
+        <v>7</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="R6" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="U6" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="V6" s="2">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="3">
-        <v>1001</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>178</v>
-      </c>
-      <c r="I6" s="3">
-        <v>68</v>
+      <c r="W6" s="2">
+        <v>35</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE0221B-17A3-45CB-B847-479EF4DE2120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC415336-EC2F-4C51-8F48-1791F3EF71A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="2655" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"test_001","test_002"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skills</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,6 +225,10 @@
   </si>
   <si>
     <t>Unit_BingNv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"test_001","test_002","test_003"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -683,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>11</v>
@@ -751,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>12</v>
@@ -805,7 +805,7 @@
         <v>39</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -887,10 +887,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>0.9</v>
       </c>
       <c r="N6" s="2">
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
       <c r="O6" s="2">
         <v>7</v>
@@ -941,7 +941,7 @@
         <v>35</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC415336-EC2F-4C51-8F48-1791F3EF71A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EDCC32-073D-46B2-BA94-6B1B83489E7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="2655" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="3300" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>"test_001","test_002","test_003"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了方便服务器找到对应的碰撞体数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -659,7 +663,8 @@
     <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="25" style="3" customWidth="1"/>
-    <col min="6" max="7" width="25.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="32.875" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="3" customWidth="1"/>
     <col min="9" max="10" width="13.625" style="3" customWidth="1"/>
     <col min="11" max="11" width="15.75" style="3" customWidth="1"/>
@@ -672,6 +677,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>6</v>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EDCC32-073D-46B2-BA94-6B1B83489E7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD9FD5-1502-4D2C-B7AE-B293CAB637CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="3300" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7125" yWindow="3090" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>闪避率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +230,9 @@
   <si>
     <t>为了方便服务器找到对应的碰撞体数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
   </si>
 </sst>
 </file>
@@ -652,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -679,7 +678,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -693,19 +692,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>14</v>
@@ -717,37 +716,37 @@
         <v>17</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -761,19 +760,19 @@
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>13</v>
@@ -782,40 +781,40 @@
         <v>16</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="O4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="Q4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="T4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -850,25 +849,25 @@
         <v>18</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>18</v>
@@ -883,7 +882,7 @@
         <v>18</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -897,10 +896,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -951,7 +950,7 @@
         <v>35</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
